--- a/testdata/input.xlsx
+++ b/testdata/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dmitry\Projects\research-programmes-compare\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76227238-AFAE-4C28-A625-462A783B5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D5356-F491-4992-905C-418589B133CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{51583AE7-DFE9-4D46-AEB7-650332279173}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Evidence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>doi</t>
   </si>
@@ -74,7 +71,31 @@
     <t>#EEFFDD</t>
   </si>
   <si>
-    <t>#0C35FF</t>
+    <t>#FC35FF</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>violet</t>
   </si>
 </sst>
 </file>
@@ -426,92 +447,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB86BD0D-FBD9-4781-8C88-8273D0D8CDCB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.06640625" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.9296875" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
       </c>
       <c r="D5">
         <v>190</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
